--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF157941-FF31-A143-92D9-FB72C9A38A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FBD3A3-3276-9440-95AC-A58EE7DD9764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>TBB</t>
   </si>
   <si>
-    <t>Excel exercises on exponential/geometric growth</t>
-  </si>
-  <si>
     <t>Extra reading</t>
   </si>
   <si>
@@ -92,24 +89,15 @@
     <t>Logistic growth 1</t>
   </si>
   <si>
-    <t>Excel exercises on logistic growth</t>
-  </si>
-  <si>
     <t>G.2</t>
   </si>
   <si>
     <t>Logistic growth 2</t>
   </si>
   <si>
-    <t>Excel, deeper into logistic growth, different perspectives</t>
-  </si>
-  <si>
     <t>Age &amp; stage structured models</t>
   </si>
   <si>
-    <t>Excel, life tables</t>
-  </si>
-  <si>
     <t>G.3</t>
   </si>
   <si>
@@ -119,21 +107,12 @@
     <t>Predation 1</t>
   </si>
   <si>
-    <t>Exercises on matrix models</t>
-  </si>
-  <si>
     <t>G.6</t>
   </si>
   <si>
     <t>Exercises on predation</t>
   </si>
   <si>
-    <t>Lemming case study 1</t>
-  </si>
-  <si>
-    <t>Lemming case study 2</t>
-  </si>
-  <si>
     <t> Berg et al. (2008) High-Arctic Plant–Herbivore Interactions under Climate Influence. Advances in Arctic Research. 40: 275-298; Schmidt et al (2008) Vertebrate Predator-Prey Interactions in a Seasonal Environment. 40: 345-370.</t>
   </si>
   <si>
@@ -257,9 +236,6 @@
     <t>Exponential growth 2</t>
   </si>
   <si>
-    <t>Excel exercises on stochastic exponential growth</t>
-  </si>
-  <si>
     <t>Competition 1</t>
   </si>
   <si>
@@ -270,6 +246,30 @@
   </si>
   <si>
     <t>Population Biology</t>
+  </si>
+  <si>
+    <t>Matrix population modeling</t>
+  </si>
+  <si>
+    <t>Legend of Ambalapuzha; Geometric growth</t>
+  </si>
+  <si>
+    <t>Stochastic population growth</t>
+  </si>
+  <si>
+    <t>Basic logistic population growth</t>
+  </si>
+  <si>
+    <t>Deeper into logistic growth</t>
+  </si>
+  <si>
+    <t>Life tables</t>
+  </si>
+  <si>
+    <t>Lemming case study part 1</t>
+  </si>
+  <si>
+    <t>Lemming case study part 2</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -681,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -729,19 +729,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -749,19 +749,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,19 +789,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -809,19 +809,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -829,19 +829,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -849,19 +849,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -869,19 +869,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -889,19 +889,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -909,19 +909,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -929,19 +929,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -949,19 +949,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -969,19 +969,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -989,19 +989,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1009,19 +1009,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1029,19 +1029,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1049,13 +1049,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1066,19 +1066,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1086,19 +1086,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1106,19 +1106,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1126,19 +1126,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1146,22 +1146,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1169,19 +1169,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1189,19 +1189,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1209,13 +1209,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1226,19 +1226,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1246,13 +1246,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1263,19 +1263,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1283,13 +1283,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1300,22 +1300,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1323,19 +1323,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1343,22 +1343,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1366,13 +1366,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1383,19 +1383,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1403,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1420,22 +1420,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1443,13 +1443,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1460,19 +1460,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1480,13 +1480,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1497,19 +1497,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1517,13 +1517,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1534,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1576,7 +1576,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FBD3A3-3276-9440-95AC-A58EE7DD9764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D98A1-E920-5543-B13D-539399459CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
   <si>
     <t>Topic</t>
   </si>
@@ -62,9 +62,6 @@
     <t>OJ</t>
   </si>
   <si>
-    <t>Introduction (OJ)</t>
-  </si>
-  <si>
     <t>Reading: Turchin 2001 Does population ecology have general laws? Oikos. And the “To the student” section of Gotelli.</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>G.6</t>
   </si>
   <si>
-    <t>Exercises on predation</t>
-  </si>
-  <si>
     <t> Berg et al. (2008) High-Arctic Plant–Herbivore Interactions under Climate Influence. Advances in Arctic Research. 40: 275-298; Schmidt et al (2008) Vertebrate Predator-Prey Interactions in a Seasonal Environment. 40: 345-370.</t>
   </si>
   <si>
@@ -131,15 +125,9 @@
     <t>Adaptive evolution</t>
   </si>
   <si>
-    <t>NetLogo camouflage</t>
-  </si>
-  <si>
     <t>Neutral evolution</t>
   </si>
   <si>
-    <t>Practical on neutral vs. adaptive evolution</t>
-  </si>
-  <si>
     <t>SH.2</t>
   </si>
   <si>
@@ -179,9 +167,6 @@
     <t>Life history evolution</t>
   </si>
   <si>
-    <t>How many eggs should a bird lay?</t>
-  </si>
-  <si>
     <t>Evolution of sex</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Lehtonen et al. (2012) The many costs of sex. TREE.; Maynard-Smith (1986) Contemplating life without sex. Nature.</t>
   </si>
   <si>
-    <t>About short answer exam</t>
-  </si>
-  <si>
     <t>Sexual Selection</t>
   </si>
   <si>
@@ -212,15 +194,9 @@
     <t>SH.12</t>
   </si>
   <si>
-    <t>NetLogo Speciation/fitness landscape</t>
-  </si>
-  <si>
     <t>Phylogenies</t>
   </si>
   <si>
-    <t>Building a tree</t>
-  </si>
-  <si>
     <t>Coevolution</t>
   </si>
   <si>
@@ -263,20 +239,47 @@
     <t>Deeper into logistic growth</t>
   </si>
   <si>
-    <t>Life tables</t>
-  </si>
-  <si>
     <t>Lemming case study part 1</t>
   </si>
   <si>
     <t>Lemming case study part 2</t>
+  </si>
+  <si>
+    <t>The red queen game</t>
+  </si>
+  <si>
+    <t>Making a phylogeny</t>
+  </si>
+  <si>
+    <t>Lotka-Volterra Competition</t>
+  </si>
+  <si>
+    <t>Lotka-Volterra predator-prey dynamics</t>
+  </si>
+  <si>
+    <t>Life tables and survivorship types</t>
+  </si>
+  <si>
+    <t>Bug hunt camouflage (NetLogo)</t>
+  </si>
+  <si>
+    <t>Neutral or adaptive evolution in humans?</t>
+  </si>
+  <si>
+    <t>How many eggs should a bird lay?; Trade-offs and the force of selection</t>
+  </si>
+  <si>
+    <t>Short answer exam discussion</t>
+  </si>
+  <si>
+    <t>Introduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +288,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -311,10 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +643,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -661,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -669,22 +680,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -692,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -709,19 +720,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -729,19 +740,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -749,19 +760,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -769,19 +780,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -809,19 +820,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -829,19 +840,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -849,19 +860,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -869,19 +880,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -889,19 +900,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -909,19 +920,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -929,19 +940,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -949,19 +960,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -969,16 +980,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -989,19 +1000,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1009,19 +1020,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1029,19 +1040,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1049,16 +1063,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1066,19 +1083,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1086,19 +1100,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1106,19 +1117,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1126,19 +1137,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1146,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1169,19 +1180,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1189,19 +1200,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1209,16 +1220,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1226,19 +1240,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1246,13 +1260,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1263,19 +1277,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1283,13 +1297,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1300,22 +1314,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1323,19 +1337,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1343,22 +1354,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1366,16 +1377,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1383,19 +1397,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1403,13 +1417,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1420,22 +1434,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1443,13 +1457,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>59</v>
+      <c r="D41" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1460,19 +1474,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1480,13 +1494,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>61</v>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1497,19 +1511,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1517,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1534,13 +1548,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E46" t="s">
         <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1548,10 +1568,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1562,28 +1585,24 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
+      <c r="E48"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
+      <c r="E49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D98A1-E920-5543-B13D-539399459CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0445647-C2E4-5A41-ADBE-3837DAB64426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -251,9 +251,6 @@
     <t>Making a phylogeny</t>
   </si>
   <si>
-    <t>Lotka-Volterra Competition</t>
-  </si>
-  <si>
     <t>Lotka-Volterra predator-prey dynamics</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Introduction</t>
+  </si>
+  <si>
+    <t>Lotka-Volterra competition</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0445647-C2E4-5A41-ADBE-3837DAB64426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE95249-D393-B549-AE4C-3848BC453098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
   <si>
     <t>Topic</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Lotka-Volterra competition</t>
+  </si>
+  <si>
+    <t>JJ</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -909,7 +912,7 @@
         <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -929,7 +932,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -949,7 +952,7 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE95249-D393-B549-AE4C-3848BC453098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FBA65-7AD6-7847-BEFE-BFF0944A0101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FBA65-7AD6-7847-BEFE-BFF0944A0101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91516EA8-25BB-6C47-B480-5DD8405883A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,16 +646,16 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -778,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -798,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -838,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -878,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -898,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -958,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -978,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1081,12 +1081,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1098,12 +1098,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91516EA8-25BB-6C47-B480-5DD8405883A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42CD1D-B841-9F4E-873D-8D3C5E425237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Evolution</t>
   </si>
   <si>
-    <t>Linking pop bio to evolution</t>
-  </si>
-  <si>
     <t>SH.1 &amp; appendix</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>JJ</t>
+  </si>
+  <si>
+    <t>From population biology to fitness</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -743,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -763,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -783,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -823,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -843,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -863,13 +863,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -903,16 +903,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -923,16 +923,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -943,16 +943,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -963,13 +963,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1023,13 +1023,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1043,13 +1043,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1066,13 +1066,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1103,13 +1103,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1126,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1146,13 +1146,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1166,16 +1166,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1189,13 +1189,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1209,13 +1209,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1229,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -1286,13 +1286,13 @@
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1323,16 +1323,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1363,16 +1363,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1406,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1443,16 +1443,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
         <v>49</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1483,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
         <v>51</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1520,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1557,13 +1557,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
         <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B42CD1D-B841-9F4E-873D-8D3C5E425237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3403E31-2E1F-E148-BA2E-ACB0DCB64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27220" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27240" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
   <si>
     <t>Topic</t>
   </si>
@@ -77,45 +77,21 @@
     <t>Extra reading</t>
   </si>
   <si>
-    <t>G.to the student</t>
-  </si>
-  <si>
-    <t>G.1</t>
-  </si>
-  <si>
     <t>Logistic growth 1</t>
   </si>
   <si>
-    <t>G.2</t>
-  </si>
-  <si>
     <t>Logistic growth 2</t>
   </si>
   <si>
     <t>Age &amp; stage structured models</t>
   </si>
   <si>
-    <t>G.3</t>
-  </si>
-  <si>
-    <t>G.5</t>
-  </si>
-  <si>
     <t>Predation 1</t>
   </si>
   <si>
-    <t>G.6</t>
-  </si>
-  <si>
-    <t> Berg et al. (2008) High-Arctic Plant–Herbivore Interactions under Climate Influence. Advances in Arctic Research. 40: 275-298; Schmidt et al (2008) Vertebrate Predator-Prey Interactions in a Seasonal Environment. 40: 345-370.</t>
-  </si>
-  <si>
     <t>Evolution</t>
   </si>
   <si>
-    <t>SH.1 &amp; appendix</t>
-  </si>
-  <si>
     <t>What is evolution?</t>
   </si>
   <si>
@@ -125,12 +101,6 @@
     <t>Neutral evolution</t>
   </si>
   <si>
-    <t>SH.2</t>
-  </si>
-  <si>
-    <t>SH.3</t>
-  </si>
-  <si>
     <t>Gould &amp; Lewontin (1979) Spandrels of San Marco and the Panglossian paradigm: a critique of the adaptationist programme. Proc. R. Soc. B</t>
   </si>
   <si>
@@ -140,12 +110,6 @@
     <t>Hardy-Weinberg equilibrium</t>
   </si>
   <si>
-    <t>SH.2 &amp; 3</t>
-  </si>
-  <si>
-    <t>SH.4</t>
-  </si>
-  <si>
     <t>Origin and maintenance of genetic variation</t>
   </si>
   <si>
@@ -155,21 +119,12 @@
     <t>The development and expression of variation</t>
   </si>
   <si>
-    <t>SH.5</t>
-  </si>
-  <si>
-    <t>SH.6 &amp; 7</t>
-  </si>
-  <si>
     <t>Life history evolution</t>
   </si>
   <si>
     <t>Evolution of sex</t>
   </si>
   <si>
-    <t>SH.10</t>
-  </si>
-  <si>
     <t>Fabian and Flatt (2012) Life History Evolution. Nature Education Knowledge.</t>
   </si>
   <si>
@@ -182,15 +137,9 @@
     <t>Sexual Selection</t>
   </si>
   <si>
-    <t>SH.11</t>
-  </si>
-  <si>
     <t>Speciation</t>
   </si>
   <si>
-    <t>SH.12</t>
-  </si>
-  <si>
     <t>Phylogenies</t>
   </si>
   <si>
@@ -236,21 +185,12 @@
     <t>Deeper into logistic growth</t>
   </si>
   <si>
-    <t>Lemming case study part 1</t>
-  </si>
-  <si>
-    <t>Lemming case study part 2</t>
-  </si>
-  <si>
     <t>The red queen game</t>
   </si>
   <si>
     <t>Making a phylogeny</t>
   </si>
   <si>
-    <t>Lotka-Volterra predator-prey dynamics</t>
-  </si>
-  <si>
     <t>Life tables and survivorship types</t>
   </si>
   <si>
@@ -269,13 +209,73 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>Lotka-Volterra competition</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
     <t>From population biology to fitness</t>
+  </si>
+  <si>
+    <t>G.1; N.4</t>
+  </si>
+  <si>
+    <t>G.2; N.5</t>
+  </si>
+  <si>
+    <t>G.3; N.6 &amp; 7</t>
+  </si>
+  <si>
+    <t>G.5; N.18</t>
+  </si>
+  <si>
+    <t>G.6; N.19</t>
+  </si>
+  <si>
+    <t>Interactions and community structure</t>
+  </si>
+  <si>
+    <t>SH.2; N.3</t>
+  </si>
+  <si>
+    <t>SH.1 &amp; appendix; N.1, 2</t>
+  </si>
+  <si>
+    <t>SH.3; N.11</t>
+  </si>
+  <si>
+    <t>SH.2 &amp; 3; N.11</t>
+  </si>
+  <si>
+    <t>SH.4; N.10</t>
+  </si>
+  <si>
+    <t>N.9</t>
+  </si>
+  <si>
+    <t>SH.5; N.10</t>
+  </si>
+  <si>
+    <t>SH.6 &amp; 7; N.14</t>
+  </si>
+  <si>
+    <t>SH.10; N.6</t>
+  </si>
+  <si>
+    <t>SH.11; N.22</t>
+  </si>
+  <si>
+    <t>SH.12; N.17</t>
+  </si>
+  <si>
+    <t>N.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotka-Volterra predator-prey dynamics (part 1) </t>
+  </si>
+  <si>
+    <t>Lotka-Volterra competition (part 1)</t>
+  </si>
+  <si>
+    <t>Lotka-Volterra competition (part 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotka-Volterra predator-prey dynamics (part 2) </t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,19 +683,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -706,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -723,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -735,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -743,19 +740,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,19 +760,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -783,19 +780,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -803,19 +800,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,19 +820,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -843,19 +840,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -863,19 +860,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -883,19 +880,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -903,19 +900,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -923,19 +920,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,19 +940,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -963,19 +960,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,19 +980,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1003,19 +1000,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1023,19 +1020,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1043,42 +1040,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,16 +1081,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,16 +1101,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1120,19 +1121,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1140,19 +1141,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1160,22 +1161,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1183,19 +1181,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1203,19 +1201,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1223,19 +1224,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1243,19 +1244,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,16 +1264,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,19 +1284,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1300,16 +1304,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>38</v>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1317,22 +1324,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1340,13 +1344,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1357,22 +1361,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,19 +1381,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>75</v>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,19 +1398,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,16 +1421,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,22 +1441,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1460,13 +1464,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>38</v>
+      <c r="D41" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1477,19 +1481,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1497,13 +1501,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1514,19 +1518,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1534,13 +1541,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>70</v>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1551,19 +1558,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,13 +1578,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1588,24 +1595,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-      <c r="E48"/>
+      <c r="D48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="E49"/>
+      <c r="D49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3403E31-2E1F-E148-BA2E-ACB0DCB64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8221DE-AE9A-DF45-831B-D6131DF30B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27240" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
   <si>
     <t>Topic</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lotka-Volterra predator-prey dynamics (part 2) </t>
+  </si>
+  <si>
+    <t>Practice Exam</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8221DE-AE9A-DF45-831B-D6131DF30B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF752C49-B5B8-F14E-AF0A-3BF786774FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
   <si>
     <t>Topic</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Practice Exam</t>
+  </si>
+  <si>
+    <t>Guest lecture: James Cant, jellyfish/coral population dynamics</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,10 +1390,10 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF752C49-B5B8-F14E-AF0A-3BF786774FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7C5F7-7835-184E-A788-CE6AD9FE5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
   <si>
     <t>Topic</t>
   </si>
@@ -281,7 +281,10 @@
     <t>Practice Exam</t>
   </si>
   <si>
-    <t>Guest lecture: James Cant, jellyfish/coral population dynamics</t>
+    <t>Guest lecture: James Cant, coral population dynamics</t>
+  </si>
+  <si>
+    <t>Guest lecture: Morgane Tidière, Sex differences in demography</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,10 +1513,10 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD7C5F7-7835-184E-A788-CE6AD9FE5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA8DA3-FC00-8C47-A8CE-3E4E75F7CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
   <si>
     <t>Topic</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Origin and maintenance of genetic variation</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>The development and expression of variation</t>
   </si>
   <si>
@@ -185,12 +182,6 @@
     <t>Deeper into logistic growth</t>
   </si>
   <si>
-    <t>The red queen game</t>
-  </si>
-  <si>
-    <t>Making a phylogeny</t>
-  </si>
-  <si>
     <t>Life tables and survivorship types</t>
   </si>
   <si>
@@ -285,6 +276,9 @@
   </si>
   <si>
     <t>Guest lecture: Morgane Tidière, Sex differences in demography</t>
+  </si>
+  <si>
+    <t>Was cancelled</t>
   </si>
 </sst>
 </file>
@@ -652,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -712,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -729,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -741,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -749,19 +743,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -769,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -789,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -821,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -849,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -861,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -869,19 +863,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -889,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -901,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -909,19 +903,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -929,19 +923,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -949,19 +943,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -969,19 +963,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,19 +983,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1009,19 +1003,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1029,19 +1023,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1049,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1061,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1070,19 +1064,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,19 +1084,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1110,19 +1104,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,19 +1124,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,19 +1144,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
@@ -1239,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1265,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1279,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1325,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,7 +1339,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1359,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1376,13 +1370,13 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1413,16 +1407,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1436,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,16 +1450,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1479,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1496,13 +1490,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,8 +1509,8 @@
       <c r="C43" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>83</v>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1533,16 +1527,16 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1556,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1573,13 +1567,13 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1593,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1610,13 +1604,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
         <v>36</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,12 +1623,13 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA8DA3-FC00-8C47-A8CE-3E4E75F7CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D72232-39FF-7C41-ACC5-5B951FE182AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>80</v>
@@ -1584,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/BB512_Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276BDEF-6982-D54D-A7D4-6DC492390FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF0B398-86B6-8C44-81E9-30C8ADBCC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>Exercises on game theory</t>
   </si>
   <si>
-    <t>Exercises on natural selection</t>
-  </si>
-  <si>
     <t>Exercise - Bug hunt camouflage (NetLogo)</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exercises on Lotka-Volterra predator-prey dynamics (part 1) </t>
+  </si>
+  <si>
+    <t>Exercise - Randomness and Perfection</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -876,7 +876,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>18</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="17" t="s">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12" t="s">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12" t="s">
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="17" t="s">
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>18</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -1495,7 +1495,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="12" t="s">
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>18</v>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="22" t="s">
@@ -1803,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>18</v>
@@ -1848,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>18</v>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="17" t="s">
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF0B398-86B6-8C44-81E9-30C8ADBCC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5AF12-1B72-3B47-A65F-AAF4D028A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -260,18 +260,12 @@
     <t>Stearns</t>
   </si>
   <si>
-    <t>Exercises - Legend of Ambalapuzha; Geometric growth; Stochastic growth</t>
-  </si>
-  <si>
     <t>Exponential growth</t>
   </si>
   <si>
     <t>Logistic growth</t>
   </si>
   <si>
-    <t>Exercises - Basic logistic population growth; Deeper into logistic growth</t>
-  </si>
-  <si>
     <t>Exercise on Inbreeding</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>Exercise - Randomness and Perfection</t>
+  </si>
+  <si>
+    <t>Exercises - Geometric growth (in class); Stochastic growth (as homework)</t>
+  </si>
+  <si>
+    <t>Exercises - Basic logistic population growth (in class); Deeper into logistic growth (as homework)</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12" t="s">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="12" t="s">

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5AF12-1B72-3B47-A65F-AAF4D028A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06855115-BBD3-6645-B4BA-DEEE13462087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
   <si>
     <t>Topic</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Genetic Drift and Effective Population Size</t>
   </si>
   <si>
-    <t>Inbreeding</t>
-  </si>
-  <si>
     <t>Migration, Gene Flow and Differentiation of Populations</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Neal 11</t>
   </si>
   <si>
-    <t>Neal 12</t>
-  </si>
-  <si>
     <t>Neal 13</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Logistic growth</t>
   </si>
   <si>
-    <t>Exercise on Inbreeding</t>
-  </si>
-  <si>
     <t>Exercises - Neutral/adaptive in humans</t>
   </si>
   <si>
@@ -285,6 +276,9 @@
   </si>
   <si>
     <t>Exercises - Basic logistic population growth (in class); Deeper into logistic growth (as homework)</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,8 +467,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -489,7 +481,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -823,7 +825,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,14 +839,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -861,13 +863,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -876,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>18</v>
@@ -891,13 +893,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
@@ -912,13 +914,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
@@ -936,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="17" t="s">
@@ -954,19 +956,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -984,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12" t="s">
@@ -1006,13 +1008,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1029,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -1050,13 +1052,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>16</v>
@@ -1073,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
@@ -1094,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>2</v>
@@ -1103,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>18</v>
@@ -1117,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12" t="s">
@@ -1138,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>2</v>
@@ -1161,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="17" t="s">
@@ -1178,23 +1180,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="12" t="s">
         <v>18</v>
       </c>
@@ -1207,13 +1207,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -1228,16 +1228,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>30</v>
+      <c r="E18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>18</v>
@@ -1251,13 +1251,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -1272,16 +1272,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>18</v>
@@ -1295,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -1315,18 +1315,18 @@
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="E22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="K22"/>
@@ -1337,15 +1337,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="E23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12" t="s">
         <v>18</v>
       </c>
       <c r="K23"/>
@@ -1356,16 +1357,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>18</v>
@@ -1378,13 +1379,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
@@ -1398,16 +1399,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>18</v>
@@ -1421,13 +1422,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -1442,16 +1443,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>18</v>
@@ -1466,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -1486,16 +1487,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>18</v>
@@ -1509,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17" t="s">
@@ -1526,19 +1527,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>23</v>
@@ -1555,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
@@ -1576,13 +1577,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="12" t="s">
@@ -1597,13 +1598,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="12" t="s">
@@ -1618,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>2</v>
@@ -1641,13 +1642,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="12" t="s">
@@ -1662,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>2</v>
@@ -1679,18 +1680,18 @@
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="10">
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="12" t="s">
@@ -1704,7 +1705,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>2</v>
@@ -1727,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>2</v>
@@ -1744,24 +1745,24 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="28" t="s">
+      <c r="F42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="2"/>
@@ -1773,16 +1774,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="22" t="s">
+      <c r="E43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="2"/>
@@ -1794,16 +1795,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>18</v>
@@ -1818,13 +1819,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="12" t="s">
@@ -1834,21 +1835,21 @@
       <c r="K45"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="6">
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>18</v>
@@ -1857,18 +1858,18 @@
       <c r="K46"/>
     </row>
     <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="10">
         <v>46</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="17" t="s">
@@ -1890,7 +1891,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F22 D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Lecture"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2017,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2282,7 +2283,7 @@
     <sortCondition ref="B1:B46"/>
   </sortState>
   <conditionalFormatting sqref="A1:A46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Lecture"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06855115-BBD3-6645-B4BA-DEEE13462087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889B310-3A5F-9C4D-8343-5B6580FA5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="79">
   <si>
     <t>Topic</t>
   </si>
@@ -146,13 +146,7 @@
     <t>Competition 2 (Interspecific Competition)</t>
   </si>
   <si>
-    <t>Applying Zygotic Selection Models to Natural Systems</t>
-  </si>
-  <si>
     <t>Polygenic Inheritance and Quantitative Genetics</t>
-  </si>
-  <si>
-    <t>Neal 15</t>
   </si>
   <si>
     <t>Life tables</t>
@@ -446,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,21 +471,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -825,7 +810,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -863,13 +848,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -878,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>18</v>
@@ -893,13 +878,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
@@ -914,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
@@ -938,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="17" t="s">
@@ -956,19 +941,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -986,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12" t="s">
@@ -1008,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1031,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -1052,13 +1037,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>16</v>
@@ -1075,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
@@ -1096,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>2</v>
@@ -1105,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>18</v>
@@ -1119,13 +1104,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="12" t="s">
@@ -1140,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>2</v>
@@ -1163,13 +1148,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="17" t="s">
@@ -1180,19 +1165,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="12" t="s">
@@ -1207,13 +1192,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -1228,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>2</v>
@@ -1251,13 +1236,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -1272,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>29</v>
@@ -1295,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -1315,16 +1300,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>30</v>
+      <c r="E22" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>18</v>
@@ -1337,15 +1319,14 @@
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="G23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1357,16 +1338,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>27</v>
+      <c r="E24" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>18</v>
@@ -1379,13 +1360,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>61</v>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12" t="s">
@@ -1399,16 +1380,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>18</v>
@@ -1422,13 +1403,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -1443,16 +1424,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>36</v>
+      <c r="E28" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>18</v>
@@ -1467,13 +1448,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -1487,16 +1468,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>18</v>
@@ -1510,13 +1491,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="17" t="s">
@@ -1527,13 +1508,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>2</v>
@@ -1556,13 +1537,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
@@ -1577,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>2</v>
@@ -1598,13 +1579,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="12" t="s">
@@ -1619,7 +1600,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>2</v>
@@ -1642,13 +1623,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="12" t="s">
@@ -1663,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>2</v>
@@ -1685,13 +1666,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="12" t="s">
@@ -1705,7 +1686,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>2</v>
@@ -1728,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>2</v>
@@ -1745,13 +1726,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>2</v>
@@ -1760,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>18</v>
@@ -1774,13 +1755,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="20" t="s">
@@ -1795,16 +1776,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>18</v>
@@ -1819,13 +1800,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="12" t="s">
@@ -1840,7 +1821,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>2</v>
@@ -1849,7 +1830,7 @@
         <v>33</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>18</v>
@@ -1863,13 +1844,13 @@
         <v>46</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="17" t="s">
@@ -1890,8 +1871,8 @@
       <c r="J51" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F22 D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F24 D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Lecture"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2018,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2283,7 +2264,7 @@
     <sortCondition ref="B1:B46"/>
   </sortState>
   <conditionalFormatting sqref="A1:A46">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Lecture"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/Course Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889B310-3A5F-9C4D-8343-5B6580FA5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EABB6-C77C-2B46-959B-C5F65B16923F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="80">
   <si>
     <t>Topic</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Exercises - Hardy-Weinberg equilibrium</t>
   </si>
   <si>
-    <t>Exercise on migration/gene flow</t>
-  </si>
-  <si>
     <t>Exercise on selection</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Inbreeding</t>
+  </si>
+  <si>
+    <t>Neal 12</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -863,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>18</v>
@@ -884,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="12" t="s">
@@ -953,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -977,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="12" t="s">
@@ -999,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>15</v>
@@ -1022,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -1177,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="12" t="s">
@@ -1198,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -1286,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -1306,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>18</v>
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>18</v>
@@ -1363,12 +1366,14 @@
         <v>43</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="G25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1408,8 +1413,8 @@
       <c r="D27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>59</v>
+      <c r="E27" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -1454,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -1477,7 +1482,7 @@
         <v>36</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>18</v>
@@ -1629,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="12" t="s">
@@ -1741,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>18</v>
@@ -1761,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="20" t="s">
@@ -1785,7 +1790,7 @@
         <v>41</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>18</v>
@@ -1830,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>18</v>
@@ -1850,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="17" t="s">
@@ -1999,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/Dropbox/_SDU_Teaching/BB512/BB512_Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GithubRepos/BB512_Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF1D99-DCE1-1B46-83C3-343DA8049B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB22B7-6CA8-4642-98BB-B6CCAF22E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35620" yWindow="500" windowWidth="31980" windowHeight="28120" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="83">
   <si>
     <t>Topic</t>
   </si>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,19 +432,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +778,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,28 +793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -830,22 +825,22 @@
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="1"/>
@@ -856,20 +851,20 @@
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1"/>
@@ -879,30 +874,30 @@
       <c r="B4" s="11">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" s="7">
@@ -928,25 +923,25 @@
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="1"/>
@@ -955,23 +950,23 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="20">
+      <c r="B7" s="11">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="1"/>
@@ -979,176 +974,176 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="20">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="20">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="20">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="20">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="20">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="20">
+      <c r="B13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="20">
+      <c r="B14" s="11">
         <v>7</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>13</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
         <v>7</v>
       </c>
       <c r="C15" s="7">
@@ -1173,316 +1168,316 @@
       <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="20">
+      <c r="B17" s="11">
         <v>8</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>16</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="20">
+      <c r="B18" s="11">
         <v>9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="20">
+      <c r="B19" s="11">
         <v>9</v>
       </c>
-      <c r="C19" s="12">
-        <v>18</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="20">
+      <c r="B20" s="11">
         <v>10</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="20">
+      <c r="B21" s="11">
         <v>10</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="20">
+      <c r="B22" s="11">
         <v>11</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="20">
+      <c r="B23" s="11">
         <v>11</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="20">
+      <c r="B24" s="11">
         <v>12</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>23</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
-      <c r="B25" s="20">
+      <c r="B25" s="11">
         <v>12</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>24</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="20">
+      <c r="B26" s="11">
         <v>13</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="B27" s="20">
+      <c r="B27" s="11">
         <v>13</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>26</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="20">
+      <c r="B28" s="11">
         <v>14</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="5">
         <v>27</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16">
         <v>14</v>
       </c>
       <c r="C29" s="7">
@@ -1507,213 +1502,216 @@
       <c r="A30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="11">
         <v>15</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="5">
         <v>29</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="20">
+      <c r="B31" s="11">
         <v>15</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="20">
+      <c r="B32" s="11">
         <v>16</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="5">
         <v>31</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="20">
+      <c r="B33" s="11">
         <v>16</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="20">
+      <c r="B34" s="11">
         <v>17</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="20">
+      <c r="B35" s="11">
         <v>17</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <v>34</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="20">
-        <v>18</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="11">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
         <v>35</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="20">
-        <v>18</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="11">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5">
         <v>36</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="20">
+      <c r="B38" s="11">
         <v>19</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K38" s="1"/>
@@ -1721,56 +1719,55 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="20">
+      <c r="B39" s="11">
         <v>19</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="5">
         <v>38</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="20">
+      <c r="B40" s="11">
         <v>20</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="5">
         <v>39</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17">
         <v>20</v>
       </c>
       <c r="C41" s="7">
@@ -1785,7 +1782,7 @@
       <c r="F41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="7" t="s">
         <v>18</v>
       </c>
@@ -1795,73 +1792,73 @@
       <c r="A42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42">
         <v>21</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="5">
         <v>41</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="21">
+      <c r="B43">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="5">
         <v>42</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="21">
+      <c r="B44">
         <v>22</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="5">
         <v>43</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K44" s="1"/>
@@ -1869,63 +1866,55 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="21">
+      <c r="B45">
         <v>22</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="5">
         <v>44</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="E45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="21">
+      <c r="B46">
         <v>23</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="5">
         <v>45</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="E46" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="21">
+      <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="5">
         <v>46</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="E47" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GithubRepos/BB512_Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GitHubRepos/BB512_Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB22B7-6CA8-4642-98BB-B6CCAF22E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36BE3C-F28B-9B4B-8EDC-BBB98F5253CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,6 @@
     <t>Feedback on practice exam 1</t>
   </si>
   <si>
-    <t>Exercises - From population biology to fitness</t>
-  </si>
-  <si>
     <t>Feedback on practice exam 2</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Exercises - Hawks and Doves</t>
+  </si>
+  <si>
+    <t>Exercises - The gene pool model</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
@@ -1927,7 +1927,7 @@
       <c r="K51" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G20 E1:E1048576">
+  <conditionalFormatting sqref="E1:E1048576 G20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Lecture"</formula>
     </cfRule>

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GitHubRepos/BB512_Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC36BE3C-F28B-9B4B-8EDC-BBB98F5253CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E44A6-04E1-3B42-8BC0-73CCC383E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>Feedback on practice exam 2</t>
   </si>
   <si>
-    <t>Exercises on quantitative genetics)</t>
-  </si>
-  <si>
     <t>Exercises on Lotka-Volterra competition (continued)</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Exercises - The gene pool model</t>
+  </si>
+  <si>
+    <t>Exercises - Heritability from regression</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C11A616-6116-174C-ABC2-888311E75E63}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">

--- a/BB512_Schedule.xlsx
+++ b/BB512_Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GitHubRepos/BB512_Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jones/GithubRepos/BB512_Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E44A6-04E1-3B42-8BC0-73CCC383E976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562A68A8-42EC-AE44-9ED5-E2D609DEBD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CCA45BD5-8A90-4848-8BF8-FC958BC91D48}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>Exercises - Hardy-Weinberg equilibrium</t>
   </si>
   <si>
-    <t>Exercise on selection</t>
-  </si>
-  <si>
     <t>ORJ?</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Exercises - Heritability from regression</t>
+  </si>
+  <si>
+    <t>Practice written answer exam</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>18</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
@@ -936,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>18</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>18</v>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>18</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
@@ -1467,7 +1467,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>18</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
@@ -1757,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>18</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="7" t="s">
@@ -1808,7 +1808,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>18</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
@@ -1856,7 +1856,7 @@
         <v>33</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>18</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
@@ -2055,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
